--- a/Data/Master_Data/Cenk_Tosun.xlsx
+++ b/Data/Master_Data/Cenk_Tosun.xlsx
@@ -134,8 +134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -189,12 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,22 +618,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43113</v>
+        <v>43687</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -640,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -670,40 +672,31 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>17</v>
-      </c>
-      <c r="AC2">
-        <v>0.1</v>
-      </c>
-      <c r="AD2">
-        <v>0.1</v>
-      </c>
-      <c r="AE2">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -712,22 +705,22 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
+        <v>-10</v>
+      </c>
+      <c r="AL2">
         <v>100</v>
       </c>
-      <c r="AL2">
-        <v>140</v>
-      </c>
       <c r="AM2">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -735,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43120</v>
+        <v>43694</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -756,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -789,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -813,40 +806,31 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>19</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>80</v>
+        <v>-10</v>
       </c>
       <c r="AL3">
-        <v>70</v>
+        <v>-40</v>
       </c>
       <c r="AM3">
-        <v>110</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -854,10 +838,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43131</v>
+        <v>43700</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -923,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>2</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -944,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>-60</v>
+        <v>100</v>
       </c>
       <c r="AL4">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AM4">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -964,22 +948,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43134</v>
+        <v>43709</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1024,58 +1008,49 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>0.1</v>
-      </c>
-      <c r="AD5">
-        <v>0.1</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <v>-1</v>
       </c>
       <c r="AK5">
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="AL5">
-        <v>40</v>
+        <v>-150</v>
       </c>
       <c r="AM5">
-        <v>30</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1083,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43141</v>
+        <v>43723</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1158,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1173,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="AL6">
-        <v>-80</v>
+        <v>190</v>
       </c>
       <c r="AM6">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1193,16 +1168,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43155</v>
+        <v>43729</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1211,19 +1186,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1250,40 +1225,40 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="W7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X7">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1292,19 +1267,19 @@
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>210</v>
+        <v>-70</v>
       </c>
       <c r="AL7">
-        <v>90</v>
+        <v>-100</v>
       </c>
       <c r="AM7">
-        <v>160</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1312,118 +1287,109 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43162</v>
+        <v>43736</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>40.8</v>
-      </c>
-      <c r="V8">
-        <v>28.7</v>
-      </c>
-      <c r="W8">
-        <v>38</v>
-      </c>
-      <c r="X8">
-        <v>10.8</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>4</v>
-      </c>
-      <c r="AC8">
-        <v>0.2</v>
-      </c>
-      <c r="AD8">
-        <v>0.2</v>
-      </c>
-      <c r="AE8">
-        <v>0.3</v>
+        <v>11</v>
       </c>
       <c r="AF8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK8">
-        <v>130</v>
+        <v>-210</v>
       </c>
       <c r="AL8">
-        <v>80</v>
+        <v>-190</v>
       </c>
       <c r="AM8">
-        <v>210</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1431,34 +1397,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43169</v>
+        <v>43743</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1482,67 +1448,58 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>3</v>
-      </c>
-      <c r="AC9">
-        <v>0.1</v>
-      </c>
-      <c r="AD9">
-        <v>0.1</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM9">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1550,34 +1507,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43176</v>
+        <v>43757</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1601,67 +1558,58 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>15</v>
-      </c>
-      <c r="AC10">
-        <v>0.9</v>
-      </c>
-      <c r="AD10">
-        <v>0.9</v>
-      </c>
-      <c r="AE10">
-        <v>0.2</v>
+        <v>19</v>
       </c>
       <c r="AF10">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AL10">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AM10">
-        <v>-20</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1669,31 +1617,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43190</v>
+        <v>43764</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1723,64 +1671,55 @@
         <v>0</v>
       </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
         <v>3</v>
       </c>
-      <c r="U11">
-        <v>6.2</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <v>9</v>
-      </c>
-      <c r="X11">
-        <v>1.8</v>
-      </c>
-      <c r="Y11">
-        <v>3</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>11</v>
-      </c>
-      <c r="AC11">
-        <v>0.1</v>
-      </c>
-      <c r="AD11">
-        <v>0.1</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ11">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>-240</v>
+        <v>70</v>
       </c>
       <c r="AL11">
-        <v>-170</v>
+        <v>80</v>
       </c>
       <c r="AM11">
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1788,118 +1727,118 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43197</v>
+        <v>43772</v>
       </c>
       <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>33</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>90</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>1.8</v>
-      </c>
       <c r="V12">
-        <v>13.7</v>
+        <v>0.3</v>
       </c>
       <c r="W12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="X12">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AC12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK12">
-        <v>-250</v>
+        <v>-110</v>
       </c>
       <c r="AL12">
-        <v>-220</v>
+        <v>-50</v>
       </c>
       <c r="AM12">
-        <v>-160</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1907,31 +1846,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>43204</v>
+        <v>43778</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1964,19 +1903,19 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>15.8</v>
+        <v>2.4</v>
       </c>
       <c r="V13">
-        <v>27.8</v>
+        <v>24.1</v>
       </c>
       <c r="W13">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="X13">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -1988,16 +1927,16 @@
         <v>16</v>
       </c>
       <c r="AC13">
+        <v>0.3</v>
+      </c>
+      <c r="AD13">
+        <v>0.3</v>
+      </c>
+      <c r="AE13">
         <v>0.1</v>
       </c>
-      <c r="AD13">
-        <v>0.1</v>
-      </c>
-      <c r="AE13">
-        <v>0.4</v>
-      </c>
       <c r="AF13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2006,19 +1945,19 @@
         <v>2</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>90</v>
+        <v>-30</v>
       </c>
       <c r="AL13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM13">
-        <v>150</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -2026,34 +1965,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>43213</v>
+        <v>43792</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2080,43 +2019,43 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>14.7</v>
+        <v>13.3</v>
       </c>
       <c r="W14">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -2125,19 +2064,19 @@
         <v>2</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AL14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM14">
-        <v>180</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -2145,34 +2084,34 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>43218</v>
+        <v>43800</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2187,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2196,67 +2135,58 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>42.6</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>8</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF15">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>200</v>
+        <v>-90</v>
       </c>
       <c r="AL15">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="AM15">
-        <v>150</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2264,22 +2194,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>43225</v>
+        <v>43803</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2288,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2318,64 +2248,55 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <v>10</v>
       </c>
-      <c r="X16">
-        <v>1.4</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>14</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
       <c r="AF16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK16">
-        <v>60</v>
+        <v>-220</v>
       </c>
       <c r="AL16">
-        <v>50</v>
+        <v>-130</v>
       </c>
       <c r="AM16">
-        <v>90</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -2383,22 +2304,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>43233</v>
+        <v>43806</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2437,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -2458,43 +2379,34 @@
         <v>3</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>20</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="AF17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK17">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="AL17">
-        <v>210</v>
+        <v>-160</v>
       </c>
       <c r="AM17">
-        <v>150</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -2502,37 +2414,37 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>43323</v>
+        <v>43814</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2556,49 +2468,40 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>20</v>
-      </c>
-      <c r="AC18">
-        <v>0.1</v>
-      </c>
-      <c r="AD18">
-        <v>0.1</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -2607,13 +2510,13 @@
         <v>-1</v>
       </c>
       <c r="AK18">
-        <v>10</v>
+        <v>-100</v>
       </c>
       <c r="AL18">
-        <v>30</v>
+        <v>-80</v>
       </c>
       <c r="AM18">
-        <v>-20</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -2621,37 +2524,37 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>43330</v>
+        <v>43820</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2663,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2675,31 +2578,31 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="W19">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="X19">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>0.1</v>
@@ -2720,19 +2623,19 @@
         <v>2</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK19">
-        <v>60</v>
+        <v>-110</v>
       </c>
       <c r="AL19">
-        <v>50</v>
+        <v>-90</v>
       </c>
       <c r="AM19">
-        <v>90</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -2740,22 +2643,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>43337</v>
+        <v>43825</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2764,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2785,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2794,64 +2697,55 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>2</v>
-      </c>
-      <c r="AC20">
-        <v>0.2</v>
-      </c>
-      <c r="AD20">
-        <v>0.2</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>220</v>
+        <v>-50</v>
       </c>
       <c r="AL20">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="AM20">
-        <v>180</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -2859,22 +2753,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>43344</v>
+        <v>43827</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2883,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2913,64 +2807,55 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>10</v>
-      </c>
-      <c r="AC21">
-        <v>0.2</v>
-      </c>
-      <c r="AD21">
-        <v>0.2</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21">
+        <v>30</v>
+      </c>
+      <c r="AL21">
         <v>150</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>60</v>
-      </c>
-      <c r="AM21">
-        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -2978,25 +2863,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>43359</v>
+        <v>43831</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3005,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3032,64 +2917,55 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>19</v>
-      </c>
-      <c r="AC22">
-        <v>0.6</v>
-      </c>
-      <c r="AD22">
-        <v>0.6</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI22">
+        <v>-1</v>
+      </c>
+      <c r="AJ22">
         <v>-2</v>
       </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
       <c r="AK22">
-        <v>70</v>
+        <v>-210</v>
       </c>
       <c r="AL22">
-        <v>70</v>
+        <v>-80</v>
       </c>
       <c r="AM22">
-        <v>20</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -3097,34 +2973,34 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>43366</v>
+        <v>43841</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3154,25 +3030,25 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>4.2</v>
+        <v>0.2</v>
       </c>
       <c r="V23">
         <v>0.3</v>
       </c>
       <c r="W23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X23">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
         <v>1</v>
@@ -3187,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -3196,19 +3072,19 @@
         <v>1</v>
       </c>
       <c r="AI23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
         <v>-1</v>
       </c>
       <c r="AK23">
-        <v>60</v>
+        <v>-110</v>
       </c>
       <c r="AL23">
-        <v>40</v>
+        <v>-90</v>
       </c>
       <c r="AM23">
-        <v>30</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -3216,118 +3092,118 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>43372</v>
+        <v>43848</v>
       </c>
       <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>81</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>40</v>
+      </c>
+      <c r="V24">
+        <v>2.8</v>
+      </c>
+      <c r="W24">
+        <v>50</v>
+      </c>
+      <c r="X24">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>11</v>
+      </c>
+      <c r="AC24">
+        <v>0.4</v>
+      </c>
+      <c r="AD24">
+        <v>0.4</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>33</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
         <v>7</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>35</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>34.4</v>
-      </c>
-      <c r="V24">
-        <v>11.8</v>
-      </c>
-      <c r="W24">
-        <v>35</v>
-      </c>
-      <c r="X24">
-        <v>8.1</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>3</v>
-      </c>
-      <c r="AA24">
-        <v>1</v>
-      </c>
-      <c r="AB24">
-        <v>9</v>
-      </c>
-      <c r="AC24">
-        <v>0.3</v>
-      </c>
-      <c r="AD24">
-        <v>0.3</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>26</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>5</v>
-      </c>
       <c r="AI24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK24">
-        <v>120</v>
+        <v>-210</v>
       </c>
       <c r="AL24">
-        <v>30</v>
+        <v>-80</v>
       </c>
       <c r="AM24">
-        <v>170</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="25" spans="1:39">
@@ -3335,22 +3211,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>43379</v>
+        <v>43851</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3389,64 +3265,64 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>10.7</v>
+        <v>0.7</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X25">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="Y25">
         <v>2</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ25">
         <v>0</v>
       </c>
       <c r="AK25">
+        <v>90</v>
+      </c>
+      <c r="AL25">
         <v>30</v>
       </c>
-      <c r="AL25">
-        <v>60</v>
-      </c>
       <c r="AM25">
-        <v>-30</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -3454,25 +3330,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>43394</v>
+        <v>43862</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3484,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3505,67 +3381,58 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>33.2</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>1</v>
       </c>
       <c r="AB26">
-        <v>7</v>
-      </c>
-      <c r="AC26">
-        <v>0.4</v>
-      </c>
-      <c r="AD26">
-        <v>0.4</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF26">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ26">
         <v>0</v>
       </c>
       <c r="AK26">
-        <v>-20</v>
+        <v>-70</v>
       </c>
       <c r="AL26">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="AM26">
-        <v>130</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -3573,16 +3440,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>43401</v>
+        <v>43869</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3630,61 +3497,52 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>14</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK27">
         <v>20</v>
       </c>
       <c r="AL27">
-        <v>-50</v>
+        <v>80</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -3692,16 +3550,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>43407</v>
+        <v>43883</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3722,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3749,52 +3607,61 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
       <c r="AB28">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM28">
-        <v>140</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -3802,16 +3669,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>43415</v>
+        <v>43890</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3859,19 +3726,19 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3880,31 +3747,40 @@
         <v>0</v>
       </c>
       <c r="AB29">
+        <v>4</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
         <v>6</v>
       </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
       <c r="AG29">
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK29">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AL29">
-        <v>-30</v>
+        <v>80</v>
       </c>
       <c r="AM29">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -3912,25 +3788,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>43428</v>
+        <v>43897</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3969,16 +3845,16 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3990,16 +3866,7 @@
         <v>1</v>
       </c>
       <c r="AB30">
-        <v>5</v>
-      </c>
-      <c r="AC30">
-        <v>0.2</v>
-      </c>
-      <c r="AD30">
-        <v>0.2</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -4008,33 +3875,33 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <v>1</v>
       </c>
       <c r="AJ30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>100</v>
+        <v>-10</v>
       </c>
       <c r="AL30">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="AM30">
-        <v>150</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>43436</v>
+      <c r="B31" s="3">
+        <v>43687</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4103,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4121,45 +3988,45 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="AL31">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM31">
-        <v>-130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>43439</v>
+      <c r="B32" s="3">
+        <v>43694</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4195,22 +4062,22 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -4219,57 +4086,48 @@
         <v>1</v>
       </c>
       <c r="AB32">
-        <v>15</v>
-      </c>
-      <c r="AC32">
-        <v>0.6</v>
-      </c>
-      <c r="AD32">
-        <v>0.6</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32">
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32">
         <v>0</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AL32">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="AM32">
-        <v>180</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>43444</v>
+      <c r="B33" s="3">
+        <v>43700</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4284,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4317,72 +4175,63 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>2</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>18</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33">
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33">
-        <v>-40</v>
+        <v>100</v>
       </c>
       <c r="AL33">
-        <v>-20</v>
+        <v>210</v>
       </c>
       <c r="AM33">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>43449</v>
+      <c r="B34" s="3">
+        <v>43709</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4448,16 +4297,16 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z34">
         <v>3</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4469,36 +4318,36 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ34">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK34">
-        <v>-90</v>
+        <v>-60</v>
       </c>
       <c r="AL34">
-        <v>-50</v>
+        <v>-150</v>
       </c>
       <c r="AM34">
-        <v>-140</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>43457</v>
+      <c r="B35" s="3">
+        <v>43723</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4531,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -4546,84 +4395,75 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>17</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG35">
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AJ35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK35">
-        <v>-140</v>
+        <v>100</v>
       </c>
       <c r="AL35">
-        <v>-30</v>
+        <v>190</v>
       </c>
       <c r="AM35">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>43460</v>
+      <c r="B36" s="3">
+        <v>43729</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4662,66 +4502,75 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="AC36">
+        <v>0.1</v>
+      </c>
+      <c r="AD36">
+        <v>0.1</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG36">
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="AJ36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>130</v>
+        <v>-70</v>
       </c>
       <c r="AL36">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="AM36">
-        <v>210</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>43463</v>
+      <c r="B37" s="3">
+        <v>43736</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4787,16 +4636,16 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z37">
         <v>1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4808,51 +4657,51 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ37">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK37">
-        <v>190</v>
+        <v>-210</v>
       </c>
       <c r="AL37">
-        <v>110</v>
+        <v>-190</v>
       </c>
       <c r="AM37">
-        <v>140</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>43466</v>
+      <c r="B38" s="3">
+        <v>43743</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4873,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -4885,40 +4734,31 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>11</v>
-      </c>
-      <c r="AC38">
-        <v>0.3</v>
-      </c>
-      <c r="AD38">
-        <v>0.3</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF38">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -4933,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="AK38">
-        <v>-60</v>
+        <v>10</v>
       </c>
       <c r="AL38">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AM38">
         <v>70</v>
@@ -4946,11 +4786,11 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>43478</v>
+      <c r="B39" s="3">
+        <v>43757</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5025,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -5043,30 +4883,30 @@
         <v>1</v>
       </c>
       <c r="AK39">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AL39">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AM39">
-        <v>120</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>43484</v>
+      <c r="B40" s="3">
+        <v>43764</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5120,72 +4960,63 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA40">
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>16</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG40">
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40">
         <v>-1</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AL40">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM40">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>43494</v>
+      <c r="B41" s="3">
+        <v>43772</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5194,16 +5025,16 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5221,96 +5052,96 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="V41">
-        <v>22.6</v>
+        <v>0.3</v>
       </c>
       <c r="W41">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="X41">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y41">
         <v>1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF41">
+        <v>27</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>5</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>-1</v>
       </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>1</v>
-      </c>
-      <c r="AI41">
-        <v>1</v>
-      </c>
-      <c r="AJ41">
-        <v>2</v>
-      </c>
       <c r="AK41">
-        <v>250</v>
+        <v>-110</v>
       </c>
       <c r="AL41">
-        <v>170</v>
+        <v>-50</v>
       </c>
       <c r="AM41">
-        <v>200</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>43502</v>
+      <c r="B42" s="3">
+        <v>43778</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -5352,72 +5183,72 @@
         <v>1</v>
       </c>
       <c r="U42">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="V42">
+        <v>24.1</v>
+      </c>
+      <c r="W42">
+        <v>39</v>
+      </c>
+      <c r="X42">
+        <v>6.6</v>
+      </c>
+      <c r="Y42">
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>16</v>
+      </c>
+      <c r="AC42">
         <v>0.3</v>
       </c>
-      <c r="W42">
-        <v>2</v>
-      </c>
-      <c r="X42">
-        <v>0.7</v>
-      </c>
-      <c r="Y42">
-        <v>2</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
-      </c>
-      <c r="AB42">
-        <v>13</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
       <c r="AD42">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG42">
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI42">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ42">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>-240</v>
+        <v>-30</v>
       </c>
       <c r="AL42">
-        <v>-170</v>
+        <v>100</v>
       </c>
       <c r="AM42">
-        <v>-150</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>43498</v>
+      <c r="B43" s="3">
+        <v>43792</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -5426,22 +5257,22 @@
         <v>90</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -5468,99 +5299,99 @@
         <v>0</v>
       </c>
       <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <v>13.3</v>
+      </c>
+      <c r="W43">
+        <v>72</v>
+      </c>
+      <c r="X43">
+        <v>9</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>14</v>
+      </c>
+      <c r="AC43">
+        <v>0.2</v>
+      </c>
+      <c r="AD43">
+        <v>0.2</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
         <v>3</v>
       </c>
-      <c r="U43">
-        <v>17.6</v>
-      </c>
-      <c r="V43">
-        <v>15.2</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>3.3</v>
-      </c>
-      <c r="Y43">
-        <v>3</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AA43">
-        <v>1</v>
-      </c>
-      <c r="AB43">
-        <v>20</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>15</v>
-      </c>
       <c r="AG43">
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI43">
         <v>-2</v>
       </c>
       <c r="AJ43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK43">
-        <v>-90</v>
+        <v>110</v>
       </c>
       <c r="AL43">
-        <v>-130</v>
+        <v>40</v>
       </c>
       <c r="AM43">
-        <v>-30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
-        <v>43505</v>
+      <c r="B44" s="3">
+        <v>43800</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -5575,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -5587,49 +5418,40 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA44">
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>18</v>
-      </c>
-      <c r="AC44">
-        <v>0.2</v>
-      </c>
-      <c r="AD44">
-        <v>0.2</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF44">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AG44">
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI44">
         <v>-1</v>
@@ -5638,24 +5460,24 @@
         <v>0</v>
       </c>
       <c r="AK44">
-        <v>210</v>
+        <v>-90</v>
       </c>
       <c r="AL44">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AM44">
-        <v>160</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>43522</v>
+      <c r="B45" s="3">
+        <v>43803</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -5721,16 +5543,16 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA45">
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -5742,42 +5564,42 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AJ45">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK45">
-        <v>200</v>
+        <v>-220</v>
       </c>
       <c r="AL45">
-        <v>120</v>
+        <v>-130</v>
       </c>
       <c r="AM45">
-        <v>150</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>43527</v>
+      <c r="B46" s="3">
+        <v>43806</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -5786,13 +5608,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -5819,72 +5641,63 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA46">
         <v>1</v>
       </c>
       <c r="AB46">
-        <v>12</v>
-      </c>
-      <c r="AC46">
-        <v>0.1</v>
-      </c>
-      <c r="AD46">
-        <v>0.1</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG46">
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ46">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK46">
-        <v>-250</v>
+        <v>-100</v>
       </c>
       <c r="AL46">
-        <v>-220</v>
+        <v>-160</v>
       </c>
       <c r="AM46">
-        <v>-160</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>43533</v>
+      <c r="B47" s="3">
+        <v>43814</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -5950,16 +5763,16 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA47">
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5971,42 +5784,42 @@
         <v>0</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>-1</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="AL47">
-        <v>180</v>
+        <v>-80</v>
       </c>
       <c r="AM47">
-        <v>200</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>43541</v>
+      <c r="B48" s="3">
+        <v>43820</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -6015,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -6051,66 +5864,75 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y48">
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA48">
         <v>1</v>
       </c>
       <c r="AB48">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>0.1</v>
+      </c>
+      <c r="AD48">
+        <v>0.1</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG48">
         <v>0</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
         <v>-1</v>
       </c>
       <c r="AK48">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="AL48">
-        <v>-140</v>
+        <v>-90</v>
       </c>
       <c r="AM48">
-        <v>-80</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
-        <v>43554</v>
+      <c r="B49" s="3">
+        <v>43825</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -6143,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -6158,72 +5980,63 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>19</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49">
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49">
-        <v>200</v>
+        <v>-50</v>
       </c>
       <c r="AL49">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="AM49">
-        <v>150</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
-        <v>43562</v>
+      <c r="B50" s="3">
+        <v>43827</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6289,16 +6102,16 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z50">
         <v>1</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -6313,39 +6126,39 @@
         <v>1</v>
       </c>
       <c r="AJ50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK50">
-        <v>-140</v>
+        <v>30</v>
       </c>
       <c r="AL50">
-        <v>-70</v>
+        <v>150</v>
       </c>
       <c r="AM50">
-        <v>-30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>43568</v>
+      <c r="B51" s="3">
+        <v>43831</v>
       </c>
       <c r="C51">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -6354,13 +6167,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -6390,16 +6203,16 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X51">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51">
         <v>2</v>
@@ -6408,57 +6221,48 @@
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>9</v>
-      </c>
-      <c r="AC51">
-        <v>0.1</v>
-      </c>
-      <c r="AD51">
-        <v>0.1</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG51">
         <v>0</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51">
+        <v>-1</v>
+      </c>
+      <c r="AJ51">
         <v>-2</v>
       </c>
-      <c r="AJ51">
-        <v>2</v>
-      </c>
       <c r="AK51">
-        <v>220</v>
+        <v>-210</v>
       </c>
       <c r="AL51">
-        <v>140</v>
+        <v>-80</v>
       </c>
       <c r="AM51">
-        <v>170</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
-        <v>43576</v>
+      <c r="B52" s="3">
+        <v>43841</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -6470,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -6506,90 +6310,99 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA52">
         <v>1</v>
       </c>
       <c r="AB52">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52">
         <v>0</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
         <v>-1</v>
       </c>
       <c r="AK52">
-        <v>-200</v>
+        <v>-110</v>
       </c>
       <c r="AL52">
-        <v>-230</v>
+        <v>-90</v>
       </c>
       <c r="AM52">
-        <v>-90</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>43582</v>
+      <c r="B53" s="3">
+        <v>43848</v>
       </c>
       <c r="C53">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -6610,90 +6423,90 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
       <c r="U53">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="V53">
-        <v>10.4</v>
+        <v>2.8</v>
       </c>
       <c r="W53">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="X53">
-        <v>3.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA53">
         <v>0</v>
       </c>
       <c r="AB53">
+        <v>11</v>
+      </c>
+      <c r="AC53">
+        <v>0.4</v>
+      </c>
+      <c r="AD53">
+        <v>0.4</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>33</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
         <v>7</v>
       </c>
-      <c r="AC53">
-        <v>0.1</v>
-      </c>
-      <c r="AD53">
-        <v>0.1</v>
-      </c>
-      <c r="AE53">
-        <v>0.1</v>
-      </c>
-      <c r="AF53">
-        <v>2</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>1</v>
-      </c>
       <c r="AI53">
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK53">
-        <v>110</v>
+        <v>-210</v>
       </c>
       <c r="AL53">
-        <v>130</v>
+        <v>-80</v>
       </c>
       <c r="AM53">
-        <v>140</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
-        <v>43588</v>
+      <c r="B54" s="3">
+        <v>43851</v>
       </c>
       <c r="C54">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -6702,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -6732,174 +6545,632 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA54">
         <v>1</v>
       </c>
       <c r="AB54">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="AC54">
+        <v>0.4</v>
+      </c>
+      <c r="AD54">
+        <v>0.4</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG54">
         <v>0</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI54">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK54">
-        <v>-80</v>
+        <v>90</v>
       </c>
       <c r="AL54">
         <v>30</v>
       </c>
       <c r="AM54">
-        <v>60</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>43597</v>
+      <c r="B55" s="3">
+        <v>43862</v>
       </c>
       <c r="C55">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>15</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>-1</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>-70</v>
+      </c>
+      <c r="AL55">
+        <v>-100</v>
+      </c>
+      <c r="AM55">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>43869</v>
+      </c>
+      <c r="C56">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
         <v>3</v>
       </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>40.4</v>
-      </c>
-      <c r="V55">
-        <v>32.3</v>
-      </c>
-      <c r="W55">
-        <v>68</v>
-      </c>
-      <c r="X55">
-        <v>14.1</v>
-      </c>
-      <c r="Y55">
-        <v>2</v>
-      </c>
-      <c r="Z55">
-        <v>2</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>17</v>
-      </c>
-      <c r="AC55">
-        <v>0.7</v>
-      </c>
-      <c r="AD55">
-        <v>0.7</v>
-      </c>
-      <c r="AE55">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>8</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>-2</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>20</v>
+      </c>
+      <c r="AL56">
+        <v>80</v>
+      </c>
+      <c r="AM56">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>43883</v>
+      </c>
+      <c r="C57">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>0.3</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
         <v>0.2</v>
       </c>
-      <c r="AF55">
-        <v>35</v>
-      </c>
-      <c r="AG55">
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>13</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>30</v>
+      </c>
+      <c r="AL57">
+        <v>40</v>
+      </c>
+      <c r="AM57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>43890</v>
+      </c>
+      <c r="C58">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>3</v>
       </c>
-      <c r="AH55">
-        <v>9</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>-1</v>
-      </c>
-      <c r="AK55">
-        <v>60</v>
-      </c>
-      <c r="AL55">
-        <v>110</v>
-      </c>
-      <c r="AM55">
-        <v>-20</v>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>4.4</v>
+      </c>
+      <c r="V58">
+        <v>10.5</v>
+      </c>
+      <c r="W58">
+        <v>2</v>
+      </c>
+      <c r="X58">
+        <v>1.7</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>4</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>6</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
+      </c>
+      <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
+        <v>70</v>
+      </c>
+      <c r="AL58">
+        <v>80</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>43897</v>
+      </c>
+      <c r="C59">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>18</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>-10</v>
+      </c>
+      <c r="AL59">
+        <v>-40</v>
+      </c>
+      <c r="AM59">
+        <v>-110</v>
       </c>
     </row>
   </sheetData>
